--- a/document/数据库设计（fan）.xlsx
+++ b/document/数据库设计（fan）.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14085"/>
+    <workbookView windowWidth="28695" windowHeight="14085" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="商户信息表" sheetId="1" r:id="rId1"/>
+    <sheet name="用户信息表" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131">
   <si>
     <t>表名</t>
   </si>
@@ -141,6 +141,9 @@
     <t>支持的地区（尽量用优势地区）</t>
   </si>
   <si>
+    <t>地区名称</t>
+  </si>
+  <si>
     <t>merchant_logo</t>
   </si>
   <si>
@@ -177,6 +180,15 @@
     <t>明星教师</t>
   </si>
   <si>
+    <t xml:space="preserve"> String(teacher_id)</t>
+  </si>
+  <si>
+    <t>教师ID</t>
+  </si>
+  <si>
+    <t>需要</t>
+  </si>
+  <si>
     <t>merchant_special_area</t>
   </si>
   <si>
@@ -186,24 +198,84 @@
     <t>需要审核并进行认证</t>
   </si>
   <si>
-    <t>merchant_notify</t>
+    <t>具体内容</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merchant_notify </t>
   </si>
   <si>
     <t xml:space="preserve"> Bson</t>
   </si>
   <si>
+    <t>交易提醒方式</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mobile: Boolean,</t>
+  </si>
+  <si>
+    <t>手机短信提醒（第一期不做）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> email: Boolean,</t>
+  </si>
+  <si>
+    <t>邮件提醒 必须</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> monthly_email: Boolean </t>
+  </si>
+  <si>
+    <t>月度总结邮件（第一期不做）</t>
+  </si>
+  <si>
     <t>merchant_verification</t>
   </si>
   <si>
     <t xml:space="preserve"> Boolean</t>
   </si>
   <si>
+    <t>邮箱是否已经验证</t>
+  </si>
+  <si>
+    <t>需要邮箱验证</t>
+  </si>
+  <si>
     <t>merchant_score</t>
   </si>
   <si>
+    <t xml:space="preserve"> pass_rate: Number,</t>
+  </si>
+  <si>
+    <t>通过率</t>
+  </si>
+  <si>
+    <t>根据用户评分自动变化</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> article_score: Number,</t>
+  </si>
+  <si>
+    <t>文书评分</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> total_score: Number</t>
+  </si>
+  <si>
+    <t>总分</t>
+  </si>
+  <si>
     <t>merchant_follow_up_people</t>
   </si>
   <si>
+    <t>跟进的管理员</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> String（admin_id）</t>
+  </si>
+  <si>
+    <t>管理员ID</t>
+  </si>
+  <si>
     <t>merchant_live</t>
   </si>
   <si>
@@ -216,16 +288,127 @@
     <t>merchant_follower</t>
   </si>
   <si>
+    <t>收藏此商户的用户</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> String（user_id）</t>
+  </si>
+  <si>
+    <t>用户id</t>
+  </si>
+  <si>
     <t>merchant_buyer</t>
   </si>
   <si>
+    <t>购买的用户</t>
+  </si>
+  <si>
     <t>merchant_reputation</t>
   </si>
   <si>
+    <t xml:space="preserve">是否可合作 </t>
+  </si>
+  <si>
     <t>merchant_hierarchy</t>
   </si>
   <si>
+    <t>商户重要级别</t>
+  </si>
+  <si>
+    <t>管理员创建</t>
+  </si>
+  <si>
     <t>merchant_other_contact_method</t>
+  </si>
+  <si>
+    <t>其他联系方式</t>
+  </si>
+  <si>
+    <t>merchant_goods</t>
+  </si>
+  <si>
+    <t>可选择的套餐</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> String （good_id）</t>
+  </si>
+  <si>
+    <t>套餐ID</t>
+  </si>
+  <si>
+    <t>用户信息表</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>user_login_times</t>
+  </si>
+  <si>
+    <t>user_nickname</t>
+  </si>
+  <si>
+    <t>user_realname</t>
+  </si>
+  <si>
+    <t>user_email</t>
+  </si>
+  <si>
+    <t>user_password</t>
+  </si>
+  <si>
+    <t>user_mobile</t>
+  </si>
+  <si>
+    <t>user_current_school</t>
+  </si>
+  <si>
+    <t>user_current_major</t>
+  </si>
+  <si>
+    <t>user_target_school</t>
+  </si>
+  <si>
+    <t>user_target_major</t>
+  </si>
+  <si>
+    <t>user_target_area</t>
+  </si>
+  <si>
+    <t>user_language_level</t>
+  </si>
+  <si>
+    <t>user_identitynumber</t>
+  </si>
+  <si>
+    <t>user_config</t>
+  </si>
+  <si>
+    <t>user_follower</t>
+  </si>
+  <si>
+    <t>user_read_history</t>
+  </si>
+  <si>
+    <t>user_favourate</t>
+  </si>
+  <si>
+    <t>user_purchased</t>
+  </si>
+  <si>
+    <t>user_group</t>
+  </si>
+  <si>
+    <t>user_email_confirm</t>
+  </si>
+  <si>
+    <t>user_id_verification</t>
+  </si>
+  <si>
+    <t>user_special_identification</t>
+  </si>
+  <si>
+    <t>user_create_time</t>
   </si>
 </sst>
 </file>
@@ -233,21 +416,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -271,128 +446,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,11 +462,132 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -423,187 +598,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,11 +792,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,6 +837,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -655,65 +889,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -722,10 +897,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,150 +909,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -932,6 +1110,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1194,21 +1373,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="13.7416666666667" customWidth="1"/>
     <col min="2" max="2" width="33.875" customWidth="1"/>
-    <col min="3" max="3" width="16.5333333333333" customWidth="1"/>
+    <col min="3" max="3" width="22.6916666666667" customWidth="1"/>
     <col min="4" max="4" width="31.15" customWidth="1"/>
     <col min="5" max="5" width="42.3916666666667" customWidth="1"/>
     <col min="6" max="6" width="18.5583333333333" customWidth="1"/>
-    <col min="7" max="7" width="15.5666666666667" customWidth="1"/>
+    <col min="7" max="7" width="14.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1224,359 +1403,569 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="3:4">
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="3" t="s">
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="3" t="s">
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="3" t="s">
+      <c r="E16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="3" t="s">
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="3" t="s">
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="3" t="s">
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="D20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="3" t="s">
+      <c r="G20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="3" t="s">
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="3" t="s">
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="3" t="s">
+      <c r="E22" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>16</v>
+      <c r="D37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7">
+      <c r="C44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" t="s">
+        <v>105</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1588,14 +1977,274 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="40.375" customWidth="1"/>
+    <col min="6" max="6" width="61.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/document/数据库设计（fan）.xlsx
+++ b/document/数据库设计（fan）.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="139">
   <si>
     <t>表名</t>
   </si>
@@ -441,7 +441,20 @@
     <t xml:space="preserve">notify </t>
   </si>
   <si>
+    <t>government_verification</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>verification</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育部认证</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户上线前商户中心添加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -508,7 +521,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -528,6 +541,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -797,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1390,8 +1406,8 @@
       </c>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="2" t="s">
-        <v>135</v>
+      <c r="B47" t="s">
+        <v>136</v>
       </c>
       <c r="C47" t="s">
         <v>49</v>
@@ -1404,6 +1420,23 @@
       </c>
       <c r="F47" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/document/数据库设计（fan）.xlsx
+++ b/document/数据库设计（fan）.xlsx
@@ -4,23 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14085" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="商户信息表" sheetId="1" r:id="rId1"/>
-    <sheet name="管理员信息表" sheetId="2" r:id="rId2"/>
-    <sheet name="用户信息表" sheetId="3" r:id="rId3"/>
-    <sheet name="教师信息表" sheetId="4" r:id="rId4"/>
-    <sheet name="可选套餐表" sheetId="5" r:id="rId5"/>
-    <sheet name="订单表" sheetId="6" r:id="rId6"/>
-    <sheet name="评论信息表" sheetId="7" r:id="rId7"/>
+    <sheet name="收藏信息表" sheetId="2" r:id="rId2"/>
+    <sheet name="评论信息表" sheetId="3" r:id="rId3"/>
+    <sheet name="管理员信息表" sheetId="4" r:id="rId4"/>
+    <sheet name="用户信息表" sheetId="5" r:id="rId5"/>
+    <sheet name="教师信息表" sheetId="6" r:id="rId6"/>
+    <sheet name="可选套餐表" sheetId="7" r:id="rId7"/>
+    <sheet name="订单表" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
   <si>
     <t>字段</t>
   </si>
@@ -160,7 +162,7 @@
     <t>商户网站</t>
   </si>
   <si>
-    <t>管理员创建或者商户注册（没有可为空）</t>
+    <t>商户上线前商户中心添加</t>
   </si>
   <si>
     <t>follow_up_people</t>
@@ -239,9 +241,6 @@
   </si>
   <si>
     <t>商户公司地址</t>
-  </si>
-  <si>
-    <t>商户上线前商户中心添加</t>
   </si>
   <si>
     <t>support_area</t>
@@ -442,11 +441,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,6 +465,29 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -478,14 +500,67 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -509,97 +584,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,7 +600,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,13 +615,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,79 +765,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,85 +789,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,9 +811,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,37 +877,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -906,172 +906,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1082,9 +1067,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1407,8 +1389,8 @@
   <sheetPr/>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1442,7 +1424,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -1456,7 +1438,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
@@ -1470,7 +1452,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1479,10 +1461,10 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1504,7 +1486,7 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1573,7 +1555,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B13" t="s">
@@ -1655,7 +1637,7 @@
       <c r="C18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1694,7 +1676,7 @@
       <c r="C21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -1735,13 +1717,13 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1790,7 +1772,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B32" t="s">
@@ -1799,22 +1781,22 @@
       <c r="C32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>73</v>
+      <c r="D32" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="2:3">
@@ -1822,35 +1804,35 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>54</v>
@@ -1858,16 +1840,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>54</v>
@@ -1875,16 +1857,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D38" s="3" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>54</v>
@@ -1892,24 +1874,24 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" t="s">
         <v>87</v>
-      </c>
-      <c r="C40" t="s">
-        <v>88</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
@@ -1917,19 +1899,19 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="42" spans="2:4">
@@ -1937,91 +1919,91 @@
         <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
         <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" t="s">
         <v>95</v>
       </c>
-      <c r="C44" t="s">
-        <v>96</v>
-      </c>
       <c r="D44" s="3" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
         <v>97</v>
       </c>
-      <c r="C45" t="s">
-        <v>98</v>
-      </c>
       <c r="D45" s="3" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" t="s">
         <v>99</v>
       </c>
-      <c r="C46" t="s">
-        <v>100</v>
-      </c>
       <c r="D46" s="3" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>73</v>
+        <v>104</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2034,10 +2016,42 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2071,15 +2085,15 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
         <v>107</v>
-      </c>
-      <c r="B3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2087,7 +2101,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2095,7 +2109,7 @@
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2103,23 +2117,23 @@
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2127,7 +2141,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2136,7 +2150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F27"/>
@@ -2157,7 +2171,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2177,10 +2191,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -2192,7 +2206,7 @@
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -2201,7 +2215,7 @@
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>30</v>
@@ -2210,7 +2224,7 @@
     <row r="5" spans="1:3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>30</v>
@@ -2219,7 +2233,7 @@
     <row r="6" spans="1:3">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>30</v>
@@ -2228,7 +2242,7 @@
     <row r="7" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>30</v>
@@ -2237,7 +2251,7 @@
     <row r="8" spans="1:3">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>30</v>
@@ -2246,7 +2260,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>30</v>
@@ -2255,7 +2269,7 @@
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>30</v>
@@ -2264,7 +2278,7 @@
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>30</v>
@@ -2273,7 +2287,7 @@
     <row r="12" spans="1:3">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>30</v>
@@ -2282,7 +2296,7 @@
     <row r="13" spans="1:3">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>14</v>
@@ -2291,7 +2305,7 @@
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>30</v>
@@ -2300,7 +2314,7 @@
     <row r="15" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>30</v>
@@ -2309,7 +2323,7 @@
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>63</v>
@@ -2318,7 +2332,7 @@
     <row r="17" spans="1:3">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>14</v>
@@ -2327,7 +2341,7 @@
     <row r="18" spans="1:3">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>63</v>
@@ -2341,7 +2355,7 @@
     <row r="20" spans="1:3">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>63</v>
@@ -2355,7 +2369,7 @@
     <row r="22" spans="1:3">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>63</v>
@@ -2364,7 +2378,7 @@
     <row r="23" spans="1:3">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>14</v>
@@ -2373,7 +2387,7 @@
     <row r="24" spans="1:3">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>26</v>
@@ -2382,7 +2396,7 @@
     <row r="25" spans="1:3">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>26</v>
@@ -2391,7 +2405,7 @@
     <row r="26" spans="1:3">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>14</v>
@@ -2400,7 +2414,7 @@
     <row r="27" spans="1:3">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>11</v>
@@ -2412,7 +2426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -2428,7 +2442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -2444,7 +2458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -2460,18 +2474,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/document/数据库设计（fan）.xlsx
+++ b/document/数据库设计（fan）.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
   <si>
     <t>字段</t>
   </si>
@@ -337,6 +337,12 @@
   </si>
   <si>
     <t>教育部认证</t>
+  </si>
+  <si>
+    <t>willing_to_cooperate</t>
+  </si>
+  <si>
+    <t>是否愿意合作</t>
   </si>
   <si>
     <t>String</t>
@@ -441,11 +447,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,15 +471,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -484,39 +482,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,8 +504,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,15 +527,29 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -583,8 +572,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,9 +590,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -605,6 +603,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -615,13 +628,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,61 +778,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,103 +802,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,26 +819,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -847,8 +840,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,21 +894,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -906,6 +908,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -914,10 +927,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -926,137 +939,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1067,6 +1080,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1387,10 +1403,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1993,17 +2009,31 @@
       <c r="A48" t="s">
         <v>103</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C48" t="s">
         <v>104</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2085,15 +2115,15 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2101,7 +2131,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2109,7 +2139,7 @@
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2117,23 +2147,23 @@
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2141,7 +2171,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2171,7 +2201,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2191,10 +2221,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -2206,7 +2236,7 @@
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -2215,7 +2245,7 @@
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>30</v>
@@ -2224,7 +2254,7 @@
     <row r="5" spans="1:3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>30</v>
@@ -2233,7 +2263,7 @@
     <row r="6" spans="1:3">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>30</v>
@@ -2242,7 +2272,7 @@
     <row r="7" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>30</v>
@@ -2251,7 +2281,7 @@
     <row r="8" spans="1:3">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>30</v>
@@ -2260,7 +2290,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>30</v>
@@ -2269,7 +2299,7 @@
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>30</v>
@@ -2278,7 +2308,7 @@
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>30</v>
@@ -2287,7 +2317,7 @@
     <row r="12" spans="1:3">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>30</v>
@@ -2296,7 +2326,7 @@
     <row r="13" spans="1:3">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>14</v>
@@ -2305,7 +2335,7 @@
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>30</v>
@@ -2314,7 +2344,7 @@
     <row r="15" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>30</v>
@@ -2323,7 +2353,7 @@
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>63</v>
@@ -2332,7 +2362,7 @@
     <row r="17" spans="1:3">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>14</v>
@@ -2341,7 +2371,7 @@
     <row r="18" spans="1:3">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>63</v>
@@ -2355,7 +2385,7 @@
     <row r="20" spans="1:3">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>63</v>
@@ -2369,7 +2399,7 @@
     <row r="22" spans="1:3">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>63</v>
@@ -2378,7 +2408,7 @@
     <row r="23" spans="1:3">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>14</v>
@@ -2387,7 +2417,7 @@
     <row r="24" spans="1:3">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>26</v>
@@ -2396,7 +2426,7 @@
     <row r="25" spans="1:3">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>26</v>
@@ -2405,7 +2435,7 @@
     <row r="26" spans="1:3">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>14</v>
@@ -2414,7 +2444,7 @@
     <row r="27" spans="1:3">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>11</v>

--- a/document/数据库设计（fan）.xlsx
+++ b/document/数据库设计（fan）.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
   <si>
     <t>字段</t>
   </si>
@@ -343,6 +343,15 @@
   </si>
   <si>
     <t>是否愿意合作</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>封号处理</t>
   </si>
   <si>
     <t>String</t>
@@ -446,12 +455,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,34 +478,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -513,14 +500,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,21 +515,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,6 +541,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -567,6 +562,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,22 +600,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,7 +608,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,25 +630,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,157 +756,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,17 +824,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,24 +844,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,6 +864,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -909,13 +907,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,10 +929,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -939,19 +941,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -960,116 +962,116 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1080,9 +1082,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1403,10 +1402,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2009,13 +2008,13 @@
       <c r="A48" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C48" t="s">
         <v>104</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E48" s="2" t="s">
@@ -2026,7 +2025,7 @@
       <c r="A49" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C49" t="s">
@@ -2034,6 +2033,20 @@
       </c>
       <c r="D49" s="2" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2115,15 +2128,15 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2131,7 +2144,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2139,7 +2152,7 @@
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2147,23 +2160,23 @@
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s">
         <v>110</v>
-      </c>
-      <c r="B7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2171,7 +2184,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2201,7 +2214,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2221,10 +2234,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -2236,7 +2249,7 @@
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -2245,7 +2258,7 @@
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>30</v>
@@ -2254,7 +2267,7 @@
     <row r="5" spans="1:3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>30</v>
@@ -2263,7 +2276,7 @@
     <row r="6" spans="1:3">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>30</v>
@@ -2272,7 +2285,7 @@
     <row r="7" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>30</v>
@@ -2281,7 +2294,7 @@
     <row r="8" spans="1:3">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>30</v>
@@ -2290,7 +2303,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>30</v>
@@ -2299,7 +2312,7 @@
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>30</v>
@@ -2308,7 +2321,7 @@
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>30</v>
@@ -2317,7 +2330,7 @@
     <row r="12" spans="1:3">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>30</v>
@@ -2326,7 +2339,7 @@
     <row r="13" spans="1:3">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>14</v>
@@ -2335,7 +2348,7 @@
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>30</v>
@@ -2344,7 +2357,7 @@
     <row r="15" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>30</v>
@@ -2353,7 +2366,7 @@
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>63</v>
@@ -2362,7 +2375,7 @@
     <row r="17" spans="1:3">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>14</v>
@@ -2371,7 +2384,7 @@
     <row r="18" spans="1:3">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>63</v>
@@ -2385,7 +2398,7 @@
     <row r="20" spans="1:3">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>63</v>
@@ -2399,7 +2412,7 @@
     <row r="22" spans="1:3">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>63</v>
@@ -2408,7 +2421,7 @@
     <row r="23" spans="1:3">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>14</v>
@@ -2417,7 +2430,7 @@
     <row r="24" spans="1:3">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>26</v>
@@ -2426,7 +2439,7 @@
     <row r="25" spans="1:3">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>26</v>
@@ -2435,7 +2448,7 @@
     <row r="26" spans="1:3">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>14</v>
@@ -2444,7 +2457,7 @@
     <row r="27" spans="1:3">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>11</v>

--- a/document/数据库设计（fan）.xlsx
+++ b/document/数据库设计（fan）.xlsx
@@ -4,25 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14085"/>
+    <workbookView windowWidth="28695" windowHeight="14070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="商户信息表" sheetId="1" r:id="rId1"/>
-    <sheet name="收藏信息表" sheetId="2" r:id="rId2"/>
-    <sheet name="评论信息表" sheetId="3" r:id="rId3"/>
-    <sheet name="管理员信息表" sheetId="4" r:id="rId4"/>
-    <sheet name="用户信息表" sheetId="5" r:id="rId5"/>
-    <sheet name="教师信息表" sheetId="6" r:id="rId6"/>
-    <sheet name="可选套餐表" sheetId="7" r:id="rId7"/>
-    <sheet name="订单表" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
+    <sheet name="管理员任务表" sheetId="2" r:id="rId2"/>
+    <sheet name="收藏信息表" sheetId="3" r:id="rId3"/>
+    <sheet name="评论信息表" sheetId="4" r:id="rId4"/>
+    <sheet name="管理员信息表" sheetId="5" r:id="rId5"/>
+    <sheet name="用户信息表" sheetId="6" r:id="rId6"/>
+    <sheet name="教师信息表" sheetId="7" r:id="rId7"/>
+    <sheet name="可选套餐表" sheetId="8" r:id="rId8"/>
+    <sheet name="订单表" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167">
   <si>
     <t>字段</t>
   </si>
@@ -99,87 +99,81 @@
     <t>购买的用户</t>
   </si>
   <si>
-    <t>reputation</t>
+    <t>hierarchy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> String</t>
+  </si>
+  <si>
+    <t>商户重要级别</t>
+  </si>
+  <si>
+    <t>管理员创建</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>商户名称</t>
+  </si>
+  <si>
+    <t>管理员创建或者商户注册</t>
+  </si>
+  <si>
+    <t>contact_person_name</t>
+  </si>
+  <si>
+    <t>商户联系人</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>商户联系邮箱</t>
+  </si>
+  <si>
+    <t>商户注册需进行邮箱验证</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>商户登录密码</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>商户联系电话</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>商户网站</t>
+  </si>
+  <si>
+    <t>商户上线前商户中心添加</t>
+  </si>
+  <si>
+    <t>follow_up_people</t>
+  </si>
+  <si>
+    <t>跟进的管理员</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> String（admin_id）</t>
+  </si>
+  <si>
+    <t>管理员ID</t>
+  </si>
+  <si>
+    <t>live</t>
   </si>
   <si>
     <t xml:space="preserve"> Boolean</t>
   </si>
   <si>
-    <t xml:space="preserve">是否可合作 </t>
-  </si>
-  <si>
-    <t>管理员创建</t>
-  </si>
-  <si>
-    <t>hierarchy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> String</t>
-  </si>
-  <si>
-    <t>商户重要级别</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>商户名称</t>
-  </si>
-  <si>
-    <t>管理员创建或者商户注册</t>
-  </si>
-  <si>
-    <t>contact_person_name</t>
-  </si>
-  <si>
-    <t>商户联系人</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>商户联系邮箱</t>
-  </si>
-  <si>
-    <t>商户注册需进行邮箱验证</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>商户登录密码</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>商户联系电话</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>商户网站</t>
-  </si>
-  <si>
-    <t>商户上线前商户中心添加</t>
-  </si>
-  <si>
-    <t>follow_up_people</t>
-  </si>
-  <si>
-    <t>跟进的管理员</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> String（admin_id）</t>
-  </si>
-  <si>
-    <t>管理员ID</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
     <t>是否可以上线显示给用户</t>
   </si>
   <si>
@@ -354,9 +348,96 @@
     <t>封号处理</t>
   </si>
   <si>
+    <t>可选值</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
     <t>String</t>
   </si>
   <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>生成时默认显示或管理员创建</t>
+  </si>
+  <si>
+    <t>merchant</t>
+  </si>
+  <si>
+    <t>商户信息</t>
+  </si>
+  <si>
+    <t>创建商户时候生成</t>
+  </si>
+  <si>
+    <t>id: Number</t>
+  </si>
+  <si>
+    <t>商户id</t>
+  </si>
+  <si>
+    <t>hierarchy: String</t>
+  </si>
+  <si>
+    <t>商户等级</t>
+  </si>
+  <si>
+    <t>willing_to_cooperate: Boolean</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>管理员名字</t>
+  </si>
+  <si>
+    <t>创建任务时候生成</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>"SignUpMerchant"</t>
+  </si>
+  <si>
+    <t>"InternalTask"</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>任务状态</t>
+  </si>
+  <si>
+    <t>"initial"</t>
+  </si>
+  <si>
+    <t>"Handling"</t>
+  </si>
+  <si>
+    <t>"Finish"</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>content: String,</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>create_time: Date</t>
+  </si>
+  <si>
     <t>response_company</t>
   </si>
   <si>
@@ -364,12 +445,6 @@
   </si>
   <si>
     <t>birthday</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Date</t>
   </si>
   <si>
     <t>表名</t>
@@ -455,12 +530,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +553,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -485,7 +567,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,18 +596,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -528,47 +611,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,9 +642,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,7 +690,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,181 +718,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,11 +906,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,17 +941,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,6 +961,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -906,21 +1003,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -929,10 +1011,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -941,137 +1023,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1082,6 +1164,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1402,10 +1487,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1551,7 +1636,7 @@
       <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1560,13 +1645,13 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1574,194 +1659,191 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
+      <c r="D15" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C19" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
       <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="D20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
+      <c r="D24" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" t="s">
         <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -1772,18 +1854,21 @@
         <v>68</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="B31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1791,49 +1876,52 @@
         <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
         <v>73</v>
       </c>
-      <c r="B33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="2" t="s">
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="D34" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1841,16 +1929,16 @@
         <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1858,100 +1946,94 @@
         <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>46</v>
+      <c r="D37" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" t="s">
         <v>84</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2" t="s">
+      <c r="D40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>88</v>
       </c>
+    </row>
+    <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
         <v>89</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="42" spans="2:4">
       <c r="B42" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
         <v>91</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" t="s">
         <v>92</v>
-      </c>
-      <c r="B43" t="s">
-        <v>63</v>
       </c>
       <c r="C43" t="s">
         <v>93</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="2:4">
@@ -1962,7 +2044,7 @@
         <v>95</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="2:4">
@@ -1973,80 +2055,69 @@
         <v>97</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>46</v>
+      <c r="D46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>100</v>
-      </c>
-      <c r="B47" t="s">
-        <v>26</v>
+        <v>101</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="D47" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>103</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
         <v>104</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>90</v>
+      <c r="D48" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>26</v>
+      <c r="B49" t="s">
+        <v>106</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
         <v>107</v>
       </c>
-      <c r="B50" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" t="s">
-        <v>53</v>
+      <c r="D49" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2057,6 +2128,191 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="31.125" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="36.875" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="24.125" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -2072,7 +2328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -2088,7 +2344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F9"/>
@@ -2125,7 +2381,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>110</v>
@@ -2133,15 +2389,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>110</v>
@@ -2149,7 +2405,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>110</v>
@@ -2157,7 +2413,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>110</v>
@@ -2165,7 +2421,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
         <v>110</v>
@@ -2173,7 +2429,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
         <v>110</v>
@@ -2184,7 +2440,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2193,7 +2449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F27"/>
@@ -2214,7 +2470,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2234,10 +2490,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -2249,7 +2505,7 @@
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -2258,88 +2514,88 @@
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>14</v>
@@ -2348,34 +2604,34 @@
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>14</v>
@@ -2384,10 +2640,10 @@
     <row r="18" spans="1:3">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2398,10 +2654,10 @@
     <row r="20" spans="1:3">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2412,16 +2668,16 @@
     <row r="22" spans="1:3">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>14</v>
@@ -2430,25 +2686,25 @@
     <row r="24" spans="1:3">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>14</v>
@@ -2457,29 +2713,13 @@
     <row r="27" spans="1:3">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -2496,7 +2736,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2528,7 +2768,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/document/数据库设计（fan）.xlsx
+++ b/document/数据库设计（fan）.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
   <si>
     <t>字段</t>
   </si>
@@ -385,6 +385,9 @@
   </si>
   <si>
     <t>willing_to_cooperate: Boolean</t>
+  </si>
+  <si>
+    <t>商户名</t>
   </si>
   <si>
     <t>admin</t>
@@ -532,10 +535,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,13 +548,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -575,7 +571,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,23 +592,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,26 +607,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -659,9 +625,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -688,16 +654,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,6 +708,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -719,180 +889,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,6 +899,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -917,15 +976,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,60 +999,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1011,10 +1007,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1023,137 +1019,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1164,9 +1160,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2085,7 +2078,7 @@
       <c r="C47" t="s">
         <v>102</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -2130,10 +2123,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2214,96 +2207,104 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
         <v>121</v>
       </c>
-      <c r="B7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>122</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>124</v>
       </c>
       <c r="B8" t="s">
         <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>125</v>
-      </c>
-      <c r="F8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>127</v>
       </c>
       <c r="B9" t="s">
         <v>110</v>
       </c>
       <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
         <v>129</v>
       </c>
-      <c r="F9" t="s">
+      <c r="D10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" t="s">
         <v>130</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="G10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" t="s">
+      <c r="D11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>135</v>
-      </c>
-      <c r="C12" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" t="s">
         <v>137</v>
       </c>
-      <c r="C13" t="s">
-        <v>133</v>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2389,10 +2390,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2421,7 +2422,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
         <v>110</v>
@@ -2429,7 +2430,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
         <v>110</v>
@@ -2440,7 +2441,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2470,7 +2471,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2490,10 +2491,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -2505,7 +2506,7 @@
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -2514,7 +2515,7 @@
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>26</v>
@@ -2523,7 +2524,7 @@
     <row r="5" spans="1:3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>26</v>
@@ -2532,7 +2533,7 @@
     <row r="6" spans="1:3">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>26</v>
@@ -2541,7 +2542,7 @@
     <row r="7" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>26</v>
@@ -2550,7 +2551,7 @@
     <row r="8" spans="1:3">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>26</v>
@@ -2559,7 +2560,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>26</v>
@@ -2568,7 +2569,7 @@
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>26</v>
@@ -2577,7 +2578,7 @@
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>26</v>
@@ -2586,7 +2587,7 @@
     <row r="12" spans="1:3">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>26</v>
@@ -2595,7 +2596,7 @@
     <row r="13" spans="1:3">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>14</v>
@@ -2604,7 +2605,7 @@
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>26</v>
@@ -2613,7 +2614,7 @@
     <row r="15" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>26</v>
@@ -2622,7 +2623,7 @@
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>61</v>
@@ -2631,7 +2632,7 @@
     <row r="17" spans="1:3">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>14</v>
@@ -2640,7 +2641,7 @@
     <row r="18" spans="1:3">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>61</v>
@@ -2654,7 +2655,7 @@
     <row r="20" spans="1:3">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>61</v>
@@ -2668,7 +2669,7 @@
     <row r="22" spans="1:3">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>61</v>
@@ -2677,7 +2678,7 @@
     <row r="23" spans="1:3">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>14</v>
@@ -2686,7 +2687,7 @@
     <row r="24" spans="1:3">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>49</v>
@@ -2695,7 +2696,7 @@
     <row r="25" spans="1:3">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>49</v>
@@ -2704,7 +2705,7 @@
     <row r="26" spans="1:3">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>14</v>
@@ -2713,7 +2714,7 @@
     <row r="27" spans="1:3">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>11</v>

--- a/document/数据库设计（fan）.xlsx
+++ b/document/数据库设计（fan）.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="14070" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="商户信息表" sheetId="1" r:id="rId1"/>
     <sheet name="管理员任务表" sheetId="2" r:id="rId2"/>
-    <sheet name="收藏信息表" sheetId="3" r:id="rId3"/>
-    <sheet name="评论信息表" sheetId="4" r:id="rId4"/>
-    <sheet name="管理员信息表" sheetId="5" r:id="rId5"/>
+    <sheet name="管理员信息表" sheetId="3" r:id="rId3"/>
+    <sheet name="收藏信息表" sheetId="4" r:id="rId4"/>
+    <sheet name="评论信息表" sheetId="5" r:id="rId5"/>
     <sheet name="用户信息表" sheetId="6" r:id="rId6"/>
     <sheet name="教师信息表" sheetId="7" r:id="rId7"/>
     <sheet name="可选套餐表" sheetId="8" r:id="rId8"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174">
   <si>
     <t>字段</t>
   </si>
@@ -441,13 +441,31 @@
     <t>create_time: Date</t>
   </si>
   <si>
-    <t>response_company</t>
-  </si>
-  <si>
-    <t>Array</t>
+    <t>管理员姓名</t>
+  </si>
+  <si>
+    <t>生成时</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>手机</t>
   </si>
   <si>
     <t>birthday</t>
+  </si>
+  <si>
+    <t>生日</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>职位</t>
   </si>
   <si>
     <t>表名</t>
@@ -534,9 +552,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -570,14 +588,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -592,6 +602,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -601,7 +626,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,17 +640,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,14 +681,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,22 +697,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,7 +711,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,175 +738,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,6 +917,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -921,22 +978,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,23 +986,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,15 +1017,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1007,10 +1025,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1022,130 +1040,130 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2125,7 +2143,7 @@
   <sheetPr/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2316,6 +2334,136 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="19.25" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="24.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2329,7 +2477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -2340,111 +2488,6 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -2471,7 +2514,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2491,10 +2534,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -2506,7 +2549,7 @@
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -2515,7 +2558,7 @@
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>26</v>
@@ -2524,7 +2567,7 @@
     <row r="5" spans="1:3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>26</v>
@@ -2533,7 +2576,7 @@
     <row r="6" spans="1:3">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>26</v>
@@ -2542,7 +2585,7 @@
     <row r="7" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>26</v>
@@ -2551,7 +2594,7 @@
     <row r="8" spans="1:3">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>26</v>
@@ -2560,7 +2603,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>26</v>
@@ -2569,7 +2612,7 @@
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>26</v>
@@ -2578,7 +2621,7 @@
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>26</v>
@@ -2587,7 +2630,7 @@
     <row r="12" spans="1:3">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>26</v>
@@ -2596,7 +2639,7 @@
     <row r="13" spans="1:3">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>14</v>
@@ -2605,7 +2648,7 @@
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>26</v>
@@ -2614,7 +2657,7 @@
     <row r="15" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>26</v>
@@ -2623,7 +2666,7 @@
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>61</v>
@@ -2632,7 +2675,7 @@
     <row r="17" spans="1:3">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>14</v>
@@ -2641,7 +2684,7 @@
     <row r="18" spans="1:3">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>61</v>
@@ -2655,7 +2698,7 @@
     <row r="20" spans="1:3">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>61</v>
@@ -2669,7 +2712,7 @@
     <row r="22" spans="1:3">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>61</v>
@@ -2678,7 +2721,7 @@
     <row r="23" spans="1:3">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>14</v>
@@ -2687,7 +2730,7 @@
     <row r="24" spans="1:3">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>49</v>
@@ -2696,7 +2739,7 @@
     <row r="25" spans="1:3">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>49</v>
@@ -2705,7 +2748,7 @@
     <row r="26" spans="1:3">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>14</v>
@@ -2714,7 +2757,7 @@
     <row r="27" spans="1:3">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>11</v>

--- a/document/数据库设计（fan）.xlsx
+++ b/document/数据库设计（fan）.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="商户信息表" sheetId="1" r:id="rId1"/>
     <sheet name="管理员任务表" sheetId="2" r:id="rId2"/>
     <sheet name="管理员信息表" sheetId="3" r:id="rId3"/>
-    <sheet name="收藏信息表" sheetId="4" r:id="rId4"/>
-    <sheet name="评论信息表" sheetId="5" r:id="rId5"/>
-    <sheet name="用户信息表" sheetId="6" r:id="rId6"/>
+    <sheet name="用户信息表" sheetId="4" r:id="rId4"/>
+    <sheet name="收藏信息表" sheetId="5" r:id="rId5"/>
+    <sheet name="评论信息表" sheetId="6" r:id="rId6"/>
     <sheet name="教师信息表" sheetId="7" r:id="rId7"/>
     <sheet name="可选套餐表" sheetId="8" r:id="rId8"/>
     <sheet name="订单表" sheetId="9" r:id="rId9"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178">
   <si>
     <t>字段</t>
   </si>
@@ -390,16 +390,16 @@
     <t>商户名</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>管理员名字</t>
+    <t>assign_admin</t>
+  </si>
+  <si>
+    <t>分配管理员名字</t>
   </si>
   <si>
     <t>创建任务时候生成</t>
   </si>
   <si>
-    <t>type</t>
+    <t>task_type</t>
   </si>
   <si>
     <t>"SignUpMerchant"</t>
@@ -441,6 +441,12 @@
     <t>create_time: Date</t>
   </si>
   <si>
+    <t>create_admin</t>
+  </si>
+  <si>
+    <t>创建管理员名字</t>
+  </si>
+  <si>
     <t>管理员姓名</t>
   </si>
   <si>
@@ -466,6 +472,12 @@
   </si>
   <si>
     <t>职位</t>
+  </si>
+  <si>
+    <t>deleted</t>
+  </si>
+  <si>
+    <t>是否已经删除</t>
   </si>
   <si>
     <t>表名</t>
@@ -551,12 +563,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,12 +586,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -603,6 +616,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -610,8 +631,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,6 +663,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,11 +683,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -658,53 +715,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,187 +745,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,9 +941,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -940,21 +985,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -977,8 +1007,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,8 +1016,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1006,17 +1036,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1025,10 +1044,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1037,137 +1056,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1178,6 +1197,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1500,8 +1525,8 @@
   <sheetPr/>
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2096,7 +2121,7 @@
       <c r="C47" t="s">
         <v>102</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -2141,17 +2166,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="D21" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1"/>
     <col min="2" max="2" width="31.125" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="26.7416666666667" customWidth="1"/>
     <col min="4" max="4" width="36.875" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
     <col min="6" max="6" width="24.125" customWidth="1"/>
@@ -2325,6 +2350,20 @@
         <v>134</v>
       </c>
     </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2334,10 +2373,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2363,12 +2402,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
@@ -2378,13 +2413,13 @@
         <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>141</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -2392,7 +2427,10 @@
         <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>143</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2403,7 +2441,7 @@
         <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2414,18 +2452,18 @@
         <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
         <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2446,13 +2484,24 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
         <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2462,38 +2511,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F27"/>
@@ -2514,7 +2531,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2534,10 +2551,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -2549,7 +2566,7 @@
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -2558,7 +2575,7 @@
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>26</v>
@@ -2567,7 +2584,7 @@
     <row r="5" spans="1:3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>26</v>
@@ -2576,7 +2593,7 @@
     <row r="6" spans="1:3">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>26</v>
@@ -2585,7 +2602,7 @@
     <row r="7" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>26</v>
@@ -2594,7 +2611,7 @@
     <row r="8" spans="1:3">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>26</v>
@@ -2603,7 +2620,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>26</v>
@@ -2612,7 +2629,7 @@
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>26</v>
@@ -2621,7 +2638,7 @@
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>26</v>
@@ -2630,7 +2647,7 @@
     <row r="12" spans="1:3">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>26</v>
@@ -2639,7 +2656,7 @@
     <row r="13" spans="1:3">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>14</v>
@@ -2648,7 +2665,7 @@
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>26</v>
@@ -2657,7 +2674,7 @@
     <row r="15" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>26</v>
@@ -2666,7 +2683,7 @@
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>61</v>
@@ -2675,7 +2692,7 @@
     <row r="17" spans="1:3">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>14</v>
@@ -2684,7 +2701,7 @@
     <row r="18" spans="1:3">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>61</v>
@@ -2698,7 +2715,7 @@
     <row r="20" spans="1:3">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>61</v>
@@ -2712,7 +2729,7 @@
     <row r="22" spans="1:3">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>61</v>
@@ -2721,7 +2738,7 @@
     <row r="23" spans="1:3">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>14</v>
@@ -2730,7 +2747,7 @@
     <row r="24" spans="1:3">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>49</v>
@@ -2739,7 +2756,7 @@
     <row r="25" spans="1:3">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>49</v>
@@ -2748,7 +2765,7 @@
     <row r="26" spans="1:3">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>14</v>
@@ -2757,7 +2774,7 @@
     <row r="27" spans="1:3">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>11</v>
@@ -2765,6 +2782,38 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>

--- a/document/数据库设计（fan）.xlsx
+++ b/document/数据库设计（fan）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070"/>
+    <workbookView windowWidth="28695" windowHeight="14070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="商户信息表" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179">
   <si>
     <t>字段</t>
   </si>
@@ -405,7 +405,10 @@
     <t>"SignUpMerchant"</t>
   </si>
   <si>
-    <t>"InternalTask"</t>
+    <t>"AdminCreate"</t>
+  </si>
+  <si>
+    <t>"LiveApproval"</t>
   </si>
   <si>
     <t>status</t>
@@ -414,10 +417,10 @@
     <t>任务状态</t>
   </si>
   <si>
-    <t>"initial"</t>
-  </si>
-  <si>
-    <t>"Handling"</t>
+    <t>"Initial"</t>
+  </si>
+  <si>
+    <t>"Processing"</t>
   </si>
   <si>
     <t>"Finish"</t>
@@ -563,12 +566,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,21 +585,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -615,33 +603,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,13 +612,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,21 +633,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -714,7 +688,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -729,12 +703,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -745,6 +741,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -769,19 +855,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,13 +867,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,121 +909,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,17 +932,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -974,6 +959,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -985,6 +981,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,30 +1032,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1044,10 +1040,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1056,137 +1052,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1197,12 +1193,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1525,8 +1515,8 @@
   <sheetPr/>
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2121,7 +2111,7 @@
       <c r="C47" t="s">
         <v>102</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -2168,8 +2158,8 @@
   <sheetPr/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="D21" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2272,7 +2262,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -2291,28 +2281,31 @@
       <c r="F9" t="s">
         <v>127</v>
       </c>
+      <c r="G9" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
         <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s">
         <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2320,10 +2313,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
         <v>124</v>
@@ -2331,36 +2324,36 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2413,10 +2406,10 @@
         <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="4" t="s">
         <v>142</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2427,10 +2420,10 @@
         <v>110</v>
       </c>
       <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2441,7 +2434,7 @@
         <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2452,23 +2445,23 @@
         <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
         <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
         <v>110</v>
@@ -2479,29 +2472,29 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
         <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
         <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2531,7 +2524,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2551,10 +2544,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -2566,7 +2559,7 @@
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -2575,7 +2568,7 @@
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>26</v>
@@ -2584,7 +2577,7 @@
     <row r="5" spans="1:3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>26</v>
@@ -2593,7 +2586,7 @@
     <row r="6" spans="1:3">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>26</v>
@@ -2602,7 +2595,7 @@
     <row r="7" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>26</v>
@@ -2611,7 +2604,7 @@
     <row r="8" spans="1:3">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>26</v>
@@ -2620,7 +2613,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>26</v>
@@ -2629,7 +2622,7 @@
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>26</v>
@@ -2638,7 +2631,7 @@
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>26</v>
@@ -2647,7 +2640,7 @@
     <row r="12" spans="1:3">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>26</v>
@@ -2656,7 +2649,7 @@
     <row r="13" spans="1:3">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>14</v>
@@ -2665,7 +2658,7 @@
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>26</v>
@@ -2674,7 +2667,7 @@
     <row r="15" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>26</v>
@@ -2683,7 +2676,7 @@
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>61</v>
@@ -2692,7 +2685,7 @@
     <row r="17" spans="1:3">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>14</v>
@@ -2701,7 +2694,7 @@
     <row r="18" spans="1:3">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>61</v>
@@ -2715,7 +2708,7 @@
     <row r="20" spans="1:3">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>61</v>
@@ -2729,7 +2722,7 @@
     <row r="22" spans="1:3">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>61</v>
@@ -2738,7 +2731,7 @@
     <row r="23" spans="1:3">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>14</v>
@@ -2747,7 +2740,7 @@
     <row r="24" spans="1:3">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>49</v>
@@ -2756,7 +2749,7 @@
     <row r="25" spans="1:3">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>49</v>
@@ -2765,7 +2758,7 @@
     <row r="26" spans="1:3">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>14</v>
@@ -2774,7 +2767,7 @@
     <row r="27" spans="1:3">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>11</v>

--- a/document/数据库设计（fan）.xlsx
+++ b/document/数据库设计（fan）.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" activeTab="1"/>
+    <workbookView windowWidth="19095" windowHeight="8865" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="商户信息表" sheetId="1" r:id="rId1"/>
     <sheet name="管理员任务表" sheetId="2" r:id="rId2"/>
-    <sheet name="管理员信息表" sheetId="3" r:id="rId3"/>
-    <sheet name="用户信息表" sheetId="4" r:id="rId4"/>
+    <sheet name="用户信息表" sheetId="3" r:id="rId3"/>
+    <sheet name="管理员信息表" sheetId="4" r:id="rId4"/>
     <sheet name="收藏信息表" sheetId="5" r:id="rId5"/>
     <sheet name="评论信息表" sheetId="6" r:id="rId6"/>
     <sheet name="教师信息表" sheetId="7" r:id="rId7"/>
@@ -450,6 +450,84 @@
     <t>创建管理员名字</t>
   </si>
   <si>
+    <t>表名</t>
+  </si>
+  <si>
+    <t>用户信息表</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>user_login_times</t>
+  </si>
+  <si>
+    <t>user_nickname</t>
+  </si>
+  <si>
+    <t>user_realname</t>
+  </si>
+  <si>
+    <t>user_email</t>
+  </si>
+  <si>
+    <t>user_password</t>
+  </si>
+  <si>
+    <t>user_mobile</t>
+  </si>
+  <si>
+    <t>user_current_school</t>
+  </si>
+  <si>
+    <t>user_current_major</t>
+  </si>
+  <si>
+    <t>user_target_school</t>
+  </si>
+  <si>
+    <t>user_target_major</t>
+  </si>
+  <si>
+    <t>user_target_area</t>
+  </si>
+  <si>
+    <t>user_language_level</t>
+  </si>
+  <si>
+    <t>user_identitynumber</t>
+  </si>
+  <si>
+    <t>user_config</t>
+  </si>
+  <si>
+    <t>user_follower</t>
+  </si>
+  <si>
+    <t>user_read_history</t>
+  </si>
+  <si>
+    <t>user_favourate</t>
+  </si>
+  <si>
+    <t>user_purchased</t>
+  </si>
+  <si>
+    <t>user_group</t>
+  </si>
+  <si>
+    <t>user_email_confirm</t>
+  </si>
+  <si>
+    <t>user_id_verification</t>
+  </si>
+  <si>
+    <t>user_special_identification</t>
+  </si>
+  <si>
+    <t>user_create_time</t>
+  </si>
+  <si>
     <t>管理员姓名</t>
   </si>
   <si>
@@ -481,84 +559,6 @@
   </si>
   <si>
     <t>是否已经删除</t>
-  </si>
-  <si>
-    <t>表名</t>
-  </si>
-  <si>
-    <t>用户信息表</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>user_login_times</t>
-  </si>
-  <si>
-    <t>user_nickname</t>
-  </si>
-  <si>
-    <t>user_realname</t>
-  </si>
-  <si>
-    <t>user_email</t>
-  </si>
-  <si>
-    <t>user_password</t>
-  </si>
-  <si>
-    <t>user_mobile</t>
-  </si>
-  <si>
-    <t>user_current_school</t>
-  </si>
-  <si>
-    <t>user_current_major</t>
-  </si>
-  <si>
-    <t>user_target_school</t>
-  </si>
-  <si>
-    <t>user_target_major</t>
-  </si>
-  <si>
-    <t>user_target_area</t>
-  </si>
-  <si>
-    <t>user_language_level</t>
-  </si>
-  <si>
-    <t>user_identitynumber</t>
-  </si>
-  <si>
-    <t>user_config</t>
-  </si>
-  <si>
-    <t>user_follower</t>
-  </si>
-  <si>
-    <t>user_read_history</t>
-  </si>
-  <si>
-    <t>user_favourate</t>
-  </si>
-  <si>
-    <t>user_purchased</t>
-  </si>
-  <si>
-    <t>user_group</t>
-  </si>
-  <si>
-    <t>user_email_confirm</t>
-  </si>
-  <si>
-    <t>user_id_verification</t>
-  </si>
-  <si>
-    <t>user_special_identification</t>
-  </si>
-  <si>
-    <t>user_create_time</t>
   </si>
 </sst>
 </file>
@@ -567,9 +567,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -588,6 +588,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -603,61 +685,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,17 +717,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,27 +731,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -741,43 +741,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,139 +921,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,34 +937,19 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -981,6 +966,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1003,8 +1003,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1027,8 +1027,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1040,10 +1040,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1052,133 +1052,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2158,7 +2158,7 @@
   <sheetPr/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -2364,6 +2364,282 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="40.375" customWidth="1"/>
+    <col min="6" max="6" width="61.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F10"/>
@@ -2406,10 +2682,10 @@
         <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2420,10 +2696,10 @@
         <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2434,7 +2710,7 @@
         <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2445,18 +2721,18 @@
         <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
         <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2477,304 +2753,28 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="B9" t="s">
         <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
         <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:F27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="40.375" customWidth="1"/>
-    <col min="6" max="6" width="61.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>

--- a/document/数据库设计（fan）.xlsx
+++ b/document/数据库设计（fan）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" activeTab="4"/>
+    <workbookView windowWidth="28695" windowHeight="14070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="商户信息表" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221">
   <si>
     <t>字段</t>
   </si>
@@ -370,6 +370,15 @@
   </si>
   <si>
     <t>是否已经删除</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        avatar: </t>
+  </si>
+  <si>
+    <t>String,</t>
+  </si>
+  <si>
+    <t>头像路径</t>
   </si>
   <si>
     <t>可选值</t>
@@ -683,12 +692,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,21 +715,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,17 +744,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -759,29 +767,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,6 +788,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -820,7 +814,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -828,22 +845,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -865,7 +867,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,19 +975,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,13 +1011,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,133 +1041,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,18 +1065,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,24 +1141,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,23 +1153,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,10 +1166,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1176,137 +1178,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1314,15 +1316,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1857,7 +1850,7 @@
       <c r="C17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2060,7 +2053,7 @@
       <c r="C35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -2077,7 +2070,7 @@
       <c r="C36" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2102,7 +2095,7 @@
       <c r="C38" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -2116,7 +2109,7 @@
       <c r="C39" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2130,7 +2123,7 @@
       <c r="C40" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2141,7 +2134,7 @@
       <c r="C41" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2152,7 +2145,7 @@
       <c r="C42" t="s">
         <v>89</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2163,7 +2156,7 @@
       <c r="C43" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2188,13 +2181,13 @@
       <c r="A45" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C45" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -2205,7 +2198,7 @@
       <c r="A46" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C46" t="s">
@@ -2239,10 +2232,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2281,7 +2274,7 @@
       <c r="C2" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2295,7 +2288,7 @@
       <c r="C3" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2368,6 +2361,17 @@
       </c>
       <c r="C10" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2410,54 +2414,54 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
         <v>98</v>
@@ -2468,26 +2472,26 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
         <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s">
         <v>102</v>
@@ -2496,16 +2500,16 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2516,19 +2520,19 @@
         <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2539,45 +2543,45 @@
         <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
         <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2621,7 +2625,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2629,10 +2633,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -2640,30 +2644,30 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
         <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
         <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
+      </c>
+      <c r="D4" t="s">
+        <v>158</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -2680,7 +2684,7 @@
         <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2694,7 +2698,7 @@
         <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2705,108 +2709,108 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="D7" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
         <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B9" t="s">
         <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>159</v>
+        <v>164</v>
+      </c>
+      <c r="D9" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" t="s">
         <v>162</v>
-      </c>
-      <c r="B10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>159</v>
+        <v>169</v>
+      </c>
+      <c r="D11" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>159</v>
+        <v>171</v>
+      </c>
+      <c r="D12" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s">
         <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>159</v>
+        <v>173</v>
+      </c>
+      <c r="D13" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
         <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D14" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -2814,99 +2818,99 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C15" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D15" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D16" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C17" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C18" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C20" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C21" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C22" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C23" t="s">
-        <v>192</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>179</v>
+        <v>195</v>
+      </c>
+      <c r="D23" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C25" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
@@ -2914,91 +2918,91 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B26" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C26" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D26" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C27" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C28" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C29" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C30" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C31" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -3017,7 +3021,7 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3049,10 +3053,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -3062,38 +3066,38 @@
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>217</v>
+      <c r="C12" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/document/数据库设计（fan）.xlsx
+++ b/document/数据库设计（fan）.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="商户信息表" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="可选套餐表" sheetId="8" r:id="rId8"/>
     <sheet name="订单表" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="229">
   <si>
     <t>字段</t>
   </si>
@@ -685,19 +685,45 @@
   </si>
   <si>
     <t>收藏此商户的用户</t>
+  </si>
+  <si>
+    <t>我的收藏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我加入的小组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱是否已经确认（重置密码）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加V的身份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -714,345 +740,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1060,251 +762,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1325,57 +785,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
@@ -1637,15 +1050,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+    <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="27.625" customWidth="1"/>
     <col min="2" max="2" width="10.625" customWidth="1"/>
@@ -1675,7 +1087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1689,7 +1101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1720,7 +1132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="1:6">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -1745,7 +1157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="1:6">
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1753,7 +1165,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1767,7 +1179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1781,7 +1193,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -1795,7 +1207,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1812,7 +1224,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1826,7 +1238,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -1840,7 +1252,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -1871,7 +1283,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
@@ -1885,7 +1297,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
@@ -1899,12 +1311,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:5">
       <c r="B21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>52</v>
       </c>
@@ -1918,7 +1330,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>54</v>
       </c>
@@ -1926,7 +1338,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="1:5">
       <c r="B26" t="s">
         <v>56</v>
       </c>
@@ -1937,7 +1349,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="1:5">
       <c r="B27" t="s">
         <v>59</v>
       </c>
@@ -1948,7 +1360,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:5">
       <c r="B28" t="s">
         <v>61</v>
       </c>
@@ -1959,7 +1371,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
         <v>63</v>
       </c>
@@ -1973,7 +1385,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
         <v>65</v>
       </c>
@@ -1987,7 +1399,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="1:5">
       <c r="B31" t="s">
         <v>24</v>
       </c>
@@ -1995,7 +1407,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -2009,7 +1421,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
         <v>70</v>
       </c>
@@ -2026,7 +1438,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
@@ -2043,7 +1455,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
         <v>74</v>
       </c>
@@ -2060,7 +1472,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
         <v>76</v>
       </c>
@@ -2074,7 +1486,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="1:6">
       <c r="B37" t="s">
         <v>78</v>
       </c>
@@ -2085,7 +1497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
         <v>80</v>
       </c>
@@ -2102,7 +1514,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="1:6">
       <c r="B39" t="s">
         <v>24</v>
       </c>
@@ -2113,7 +1525,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
         <v>84</v>
       </c>
@@ -2127,7 +1539,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="2:4">
+    <row r="41" spans="1:6">
       <c r="B41" t="s">
         <v>86</v>
       </c>
@@ -2138,7 +1550,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
+    <row r="42" spans="1:6">
       <c r="B42" t="s">
         <v>88</v>
       </c>
@@ -2149,7 +1561,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="1:6">
       <c r="B43" t="s">
         <v>90</v>
       </c>
@@ -2160,7 +1572,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -2177,7 +1589,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -2194,7 +1606,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -2208,7 +1620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>99</v>
       </c>
@@ -2223,22 +1635,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -2264,7 +1675,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2278,7 +1689,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -2292,7 +1703,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -2303,7 +1714,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -2314,7 +1725,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -2325,7 +1736,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -2333,7 +1744,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2341,7 +1752,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -2352,7 +1763,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -2363,7 +1774,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -2375,32 +1786,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1"/>
     <col min="2" max="2" width="31.125" customWidth="1"/>
-    <col min="3" max="3" width="26.7416666666667" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
     <col min="4" max="4" width="36.875" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
     <col min="6" max="6" width="24.125" customWidth="1"/>
     <col min="7" max="7" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2418,7 +1828,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -2432,7 +1842,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -2443,7 +1853,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="1:7">
       <c r="B4" t="s">
         <v>126</v>
       </c>
@@ -2451,7 +1861,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="1:7">
       <c r="B5" t="s">
         <v>128</v>
       </c>
@@ -2459,7 +1869,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="1:7">
       <c r="B6" t="s">
         <v>130</v>
       </c>
@@ -2467,7 +1877,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="1:7">
       <c r="B7" t="s">
         <v>27</v>
       </c>
@@ -2475,7 +1885,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -2535,7 +1945,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2549,12 +1959,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="1:7">
       <c r="B13" t="s">
         <v>145</v>
       </c>
@@ -2562,7 +1972,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="1:7">
       <c r="B14" t="s">
         <v>147</v>
       </c>
@@ -2570,7 +1980,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>148</v>
       </c>
@@ -2585,30 +1995,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="22.4916666666667" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="21.725" customWidth="1"/>
-    <col min="5" max="5" width="16.1416666666667" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="14.1" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2628,7 +2037,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2642,7 +2051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -2656,7 +2065,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -2673,7 +2082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -2687,7 +2096,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -2701,7 +2110,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -2715,7 +2124,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>160</v>
       </c>
@@ -2729,7 +2138,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>163</v>
       </c>
@@ -2743,7 +2152,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>165</v>
       </c>
@@ -2757,7 +2166,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>168</v>
       </c>
@@ -2771,7 +2180,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -2785,7 +2194,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>172</v>
       </c>
@@ -2799,7 +2208,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>174</v>
       </c>
@@ -2816,7 +2225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>176</v>
       </c>
@@ -2830,7 +2239,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="1:6">
       <c r="B16" t="s">
         <v>180</v>
       </c>
@@ -2841,7 +2250,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:6">
       <c r="B17" t="s">
         <v>183</v>
       </c>
@@ -2849,7 +2258,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="1:6">
       <c r="B18" t="s">
         <v>185</v>
       </c>
@@ -2857,12 +2266,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="1:6">
       <c r="B19" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="1:6">
       <c r="B20" t="s">
         <v>188</v>
       </c>
@@ -2870,7 +2279,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="1:6">
       <c r="B21" t="s">
         <v>190</v>
       </c>
@@ -2878,7 +2287,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="1:6">
       <c r="B22" t="s">
         <v>192</v>
       </c>
@@ -2886,7 +2295,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="1:6">
       <c r="B23" t="s">
         <v>194</v>
       </c>
@@ -2897,7 +2306,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="1:6">
       <c r="B24" t="s">
         <v>196</v>
       </c>
@@ -2916,7 +2325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>198</v>
       </c>
@@ -2930,7 +2339,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="1:6">
       <c r="B27" t="s">
         <v>202</v>
       </c>
@@ -2938,7 +2347,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="1:6">
       <c r="B28" t="s">
         <v>204</v>
       </c>
@@ -2946,7 +2355,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6">
       <c r="B29" t="s">
         <v>206</v>
       </c>
@@ -2954,7 +2363,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:6">
       <c r="B30" t="s">
         <v>208</v>
       </c>
@@ -2962,7 +2371,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="1:6">
       <c r="B31" t="s">
         <v>210</v>
       </c>
@@ -2970,62 +2379,100 @@
         <v>211</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="1:6">
       <c r="B32" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" t="s">
+        <v>223</v>
+      </c>
+      <c r="C35" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" t="s">
+        <v>226</v>
+      </c>
+      <c r="C36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" t="s">
+        <v>223</v>
+      </c>
+      <c r="C38" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>10</v>
       </c>
+      <c r="B39" t="s">
+        <v>223</v>
+      </c>
+      <c r="C39" t="s">
+        <v>227</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="25.75" customWidth="1"/>
@@ -3034,7 +2481,7 @@
     <col min="5" max="5" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3051,7 +2498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -3059,12 +2506,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>219</v>
       </c>
@@ -3100,14 +2547,13 @@
       <c r="F13" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3116,55 +2562,46 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>